--- a/Total Solved.xlsx
+++ b/Total Solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E9996-E284-47C5-8AC0-B7E7BE90C4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE5B74-D35E-4E41-A6A2-059158A11F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">LeetCode = </t>
   </si>
@@ -40,17 +40,26 @@
     <t xml:space="preserve">CodeStudio = </t>
   </si>
   <si>
-    <t xml:space="preserve">Total = </t>
+    <t xml:space="preserve">My PC (Vs Code) = </t>
   </si>
   <si>
-    <t xml:space="preserve">My PC = </t>
+    <t xml:space="preserve">HackeRank = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterviewBit = </t>
+  </si>
+  <si>
+    <t>Language Used - C++</t>
+  </si>
+  <si>
+    <t>Total Problems Solved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +78,37 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -95,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -103,7 +143,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -382,42 +438,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I7"/>
+  <dimension ref="C1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1">
-        <v>18</v>
-      </c>
+    <row r="1" spans="3:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1">
-        <f>SUM(D1:D6)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="3:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="9"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E3" s="2"/>
@@ -425,43 +479,131 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="3:9" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:9" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="3:9" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>23</v>
-      </c>
+    <row r="6" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
+    <row r="8" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="3:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="3:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D25" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Total Solved.xlsx
+++ b/Total Solved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE5B74-D35E-4E41-A6A2-059158A11F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2719418-4CE0-46D0-B656-A0B3D5190BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,17 +150,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +441,7 @@
   <dimension ref="C1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -465,7 +465,7 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="3:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="9"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -551,20 +551,20 @@
     <row r="14" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
       <c r="D16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="3:4" ht="18" x14ac:dyDescent="0.35">
       <c r="C17" s="3"/>
